--- a/Modelo_Pedido.xlsx
+++ b/Modelo_Pedido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A32BF-124E-4E4F-B51E-47B755C6ED36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1180027C-0D44-4B25-B1D5-A6BB3A61034E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" xr2:uid="{5A652F58-DF8E-46BE-9DBB-1F3AA7045651}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pedido" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Pedido!$A$1:$G$96</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Pedido!$A$1:$F$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -124,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -420,11 +420,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,100 +480,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -542,6 +512,74 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -572,7 +610,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>854715</xdr:colOff>
+      <xdr:colOff>885195</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>617798</xdr:rowOff>
     </xdr:to>
@@ -934,1168 +972,996 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519DEBFB-8826-4B53-A2FB-8FF5B4F0043B}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="7"/>
       <c r="D3"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="11"/>
       <c r="D4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="14"/>
       <c r="C5"/>
       <c r="D5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="6"/>
       <c r="D7"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="12"/>
       <c r="D8"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="6"/>
       <c r="D9"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="40" t="s">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="6"/>
       <c r="D10"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>1</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>2</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>3</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="F15" s="40"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>4</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="F16" s="40"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>5</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="F17" s="40"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>6</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="F18" s="40"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>7</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="F19" s="40"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>8</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="F20" s="40"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>9</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="F21" s="40"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>10</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="F22" s="40"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>11</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="F23" s="40"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>12</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="F24" s="40"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
         <v>13</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="F25" s="40"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>14</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="F26" s="40"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>15</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="F27" s="40"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>16</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="F28" s="40"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>17</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>18</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="F30" s="40"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>19</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
         <v>20</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
         <v>21</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="F33" s="40"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
         <v>22</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="F34" s="40"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
         <v>23</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="F35" s="40"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
         <v>24</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="F36" s="40"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
         <v>25</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="F37" s="40"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
         <v>26</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="F38" s="40"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
         <v>27</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="F39" s="40"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
         <v>28</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="F40" s="40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
         <v>29</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="F41" s="40"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
         <v>30</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="F42" s="40"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
         <v>31</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="F43" s="40"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
         <v>32</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="F44" s="40"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
         <v>33</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="F45" s="40"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
         <v>34</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
         <v>35</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="F47" s="40"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
         <v>36</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="F48" s="40"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
         <v>37</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="F49" s="40"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
         <v>38</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="F50" s="40"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
         <v>39</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="F51" s="40"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
         <v>40</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+      <c r="F52" s="40"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
         <v>41</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
+      <c r="F53" s="40"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
         <v>42</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="F54" s="40"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
         <v>43</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
+      <c r="F55" s="40"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
         <v>44</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+      <c r="F56" s="40"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
         <v>45</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+      <c r="F57" s="40"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
         <v>46</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="F58" s="40"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
         <v>47</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
+      <c r="F59" s="40"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
         <v>48</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="F60" s="40"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
         <v>49</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="F61" s="40"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
         <v>50</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+      <c r="F62" s="40"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
         <v>51</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="F63" s="40"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
         <v>52</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+      <c r="F64" s="40"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
         <v>53</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
+      <c r="F65" s="40"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
         <v>54</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+      <c r="F66" s="40"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
         <v>55</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="11">
+      <c r="F67" s="40"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
         <v>56</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+      <c r="F68" s="40"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
         <v>57</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="6"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="F69" s="40"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
         <v>58</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="F70" s="40"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
         <v>59</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="11">
+      <c r="F71" s="40"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
         <v>60</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+      <c r="F72" s="40"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
         <v>61</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="11">
+      <c r="F73" s="40"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
         <v>62</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
+      <c r="F74" s="40"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
         <v>63</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="11">
+      <c r="F75" s="40"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
         <v>64</v>
       </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
+      <c r="F76" s="40"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
         <v>65</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="6"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
+      <c r="F77" s="40"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
         <v>66</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="6"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
+      <c r="F78" s="40"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
         <v>67</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="11">
+      <c r="F79" s="40"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
         <v>68</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="11">
+      <c r="F80" s="40"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
         <v>69</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="11">
+      <c r="F81" s="40"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
         <v>70</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
+      <c r="F82" s="40"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
         <v>71</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="11">
+      <c r="F83" s="40"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
         <v>72</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
+      <c r="F84" s="40"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
         <v>73</v>
       </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="6"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
+      <c r="F85" s="40"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
         <v>74</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="6"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+      <c r="F86" s="40"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
         <v>75</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="11">
+      <c r="F87" s="40"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
         <v>76</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="6"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="11">
+      <c r="F88" s="40"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
         <v>77</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="6"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="11">
+      <c r="F89" s="40"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
         <v>78</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="6"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="11">
+      <c r="F90" s="40"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="8">
         <v>79</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="12">
+      <c r="F91" s="40"/>
+    </row>
+    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="9">
         <v>80</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="28" t="s">
+      <c r="B92" s="10"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="41"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="30"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="31"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="33"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="34"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="36"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="37"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="39"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="23"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="24"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="26"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="27"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="29"/>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="30"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="32"/>
     </row>
     <row r="1048576" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C1048576" s="27"/>
-      <c r="D1048576" s="27"/>
+      <c r="C1048576" s="20"/>
+      <c r="D1048576" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="15">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="C1048576:D1048576"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A96:F96"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C1048576:D1048576"/>
-    <mergeCell ref="A93:G93"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="A96:G96"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C73:D73"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
